--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H2">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J2">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q2">
-        <v>78.76338885659982</v>
+        <v>0.183182536477</v>
       </c>
       <c r="R2">
-        <v>78.76338885659982</v>
+        <v>1.648642828293</v>
       </c>
       <c r="S2">
-        <v>0.1877041274797707</v>
+        <v>0.0002979976775680397</v>
       </c>
       <c r="T2">
-        <v>0.1877041274797707</v>
+        <v>0.0002979976775680397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.2714564088182</v>
+        <v>6.597131</v>
       </c>
       <c r="H3">
-        <v>20.2714564088182</v>
+        <v>19.791393</v>
       </c>
       <c r="I3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J3">
-        <v>0.495507175122799</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37145374994741</v>
+        <v>3.987076</v>
       </c>
       <c r="N3">
-        <v>6.37145374994741</v>
+        <v>11.961228</v>
       </c>
       <c r="O3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q3">
-        <v>129.1586469528602</v>
+        <v>26.303262678956</v>
       </c>
       <c r="R3">
-        <v>129.1586469528602</v>
+        <v>236.729364110604</v>
       </c>
       <c r="S3">
-        <v>0.3078030476430283</v>
+        <v>0.0427896203510379</v>
       </c>
       <c r="T3">
-        <v>0.3078030476430283</v>
+        <v>0.0427896203510379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.6390640166316</v>
+        <v>6.597131</v>
       </c>
       <c r="H4">
-        <v>20.6390640166316</v>
+        <v>19.791393</v>
       </c>
       <c r="I4">
-        <v>0.5044928248772009</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="J4">
-        <v>0.5044928248772009</v>
+        <v>0.1209543635982448</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88543315626485</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N4">
-        <v>3.88543315626485</v>
+        <v>21.766538</v>
       </c>
       <c r="O4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q4">
-        <v>80.1917036444932</v>
+        <v>47.86556753415934</v>
       </c>
       <c r="R4">
-        <v>80.1917036444932</v>
+        <v>430.790107807434</v>
       </c>
       <c r="S4">
-        <v>0.1911080005852829</v>
+        <v>0.07786674556963882</v>
       </c>
       <c r="T4">
-        <v>0.1911080005852829</v>
+        <v>0.07786674556963882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H5">
+        <v>63.15952</v>
+      </c>
+      <c r="I5">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J5">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.027767</v>
+      </c>
+      <c r="N5">
+        <v>0.083301</v>
+      </c>
+      <c r="O5">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="P5">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="Q5">
+        <v>0.5845834639466667</v>
+      </c>
+      <c r="R5">
+        <v>5.26125117552</v>
+      </c>
+      <c r="S5">
+        <v>0.0009509886583684208</v>
+      </c>
+      <c r="T5">
+        <v>0.0009509886583684208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H6">
+        <v>63.15952</v>
+      </c>
+      <c r="I6">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J6">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.987076</v>
+      </c>
+      <c r="N6">
+        <v>11.961228</v>
+      </c>
+      <c r="O6">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P6">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q6">
+        <v>83.94060212117334</v>
+      </c>
+      <c r="R6">
+        <v>755.46541909056</v>
+      </c>
+      <c r="S6">
+        <v>0.1365528885386585</v>
+      </c>
+      <c r="T6">
+        <v>0.1365528885386585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>21.05317333333333</v>
+      </c>
+      <c r="H7">
+        <v>63.15952</v>
+      </c>
+      <c r="I7">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="J7">
+        <v>0.3859970617919927</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N7">
+        <v>21.766538</v>
+      </c>
+      <c r="O7">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P7">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q7">
+        <v>152.7515657935289</v>
+      </c>
+      <c r="R7">
+        <v>1374.76409214176</v>
+      </c>
+      <c r="S7">
+        <v>0.2484931845949658</v>
+      </c>
+      <c r="T7">
+        <v>0.2484931845949658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H8">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I8">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J8">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027767</v>
+      </c>
+      <c r="N8">
+        <v>0.083301</v>
+      </c>
+      <c r="O8">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="P8">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="Q8">
+        <v>0.7467104601813334</v>
+      </c>
+      <c r="R8">
+        <v>6.720394141632</v>
+      </c>
+      <c r="S8">
+        <v>0.001214733605229549</v>
+      </c>
+      <c r="T8">
+        <v>0.001214733605229549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="H5">
-        <v>20.6390640166316</v>
-      </c>
-      <c r="I5">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="J5">
-        <v>0.5044928248772009</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="N5">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="O5">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="P5">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="Q5">
-        <v>131.5008418241721</v>
-      </c>
-      <c r="R5">
-        <v>131.5008418241721</v>
-      </c>
-      <c r="S5">
-        <v>0.3133848242919181</v>
-      </c>
-      <c r="T5">
-        <v>0.3133848242919181</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H9">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I9">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J9">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.987076</v>
+      </c>
+      <c r="N9">
+        <v>11.961228</v>
+      </c>
+      <c r="O9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q9">
+        <v>107.2204903208107</v>
+      </c>
+      <c r="R9">
+        <v>964.9844128872961</v>
+      </c>
+      <c r="S9">
+        <v>0.1744241439047866</v>
+      </c>
+      <c r="T9">
+        <v>0.1744241439047866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.89201066666667</v>
+      </c>
+      <c r="H10">
+        <v>80.67603200000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="J10">
+        <v>0.4930485746097625</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N10">
+        <v>21.766538</v>
+      </c>
+      <c r="O10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q10">
+        <v>195.1153240241351</v>
+      </c>
+      <c r="R10">
+        <v>1756.037916217216</v>
+      </c>
+      <c r="S10">
+        <v>0.3174096970997464</v>
+      </c>
+      <c r="T10">
+        <v>0.3174096970997464</v>
       </c>
     </row>
   </sheetData>
